--- a/gorras.xlsx
+++ b/gorras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,432 +448,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Porta Gorras Cap Carrier 2CAP Camuflaje 6pzas</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MXN$699.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Porta Gorras New Era Carrier 2 Pack Woodcamo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MXN$679.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Porta Gorras New era carrier 2 pack Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MXN$679.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gorra Preto Saten Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MXN$599.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gorra Preto Original Curved Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MXN$239.60</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gorra Petro Camo Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MXN$599.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gorra Fox Legacy Negro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MXN$599.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gorra Preto Original Snapback Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MXN$239.60</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gorra Puma Flatbrim Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MXN$549.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gorra Rvca Commonwealth Negro Unitalla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MXN$499.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gorra Hurley HIHM0060 Phantom Natural Negro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MXN$829.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gorra Hurley HIHM0059 Phantom Resist Gray</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MXN$799.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gorra Rvca VaTrucker Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXN$499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gorra Malandro Red Heart Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXN$294.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Gorra Malandro Multicolor Skull Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXN$294.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Gorra Fox Flexfit 45 Negra</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXN$745.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Gorra New Era 9 Forty Aop Red Bull Xmt Rojo Unitalla</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXN$899.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Gorra Core Flume Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXN$549.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gorra RVCA Snapback Forge Kakhy Unitalla</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXN$499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Gorra Hurley HIHM0060 Phantom Natural Pacific Blue</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXN$829.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Gorra John Deere 13080865 Amarillo Unitalla</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXN$499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Gorra New Era 9 Forty Tie Dye Denim Red Bull Azul Unitalla</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXN$899.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Gorra Malandro Gothic Skull Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXN$344.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Gorra Malandro Death Poison Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXN$294.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Gorra Fox Transposition Flexfit Gris/Azul</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXN$749.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gorra New Era 9 Forty Camo McLaren Gris Unitalla</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXN$899.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gorra Hurley HIHM0059 Phantom Resist Coastal Blue</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXN$799.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Gorra Fox 23691 Non Stop Azul/Negro</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MXN$749.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Gorra Antifashion Snapback Parental Vino Unitalla</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MXN$499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Gorra New Era 9 Forty Orbr Patch Ef Trucker Red Bull Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MXN$899.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Gorra Formula 1 Pirelli Podio 150 Anniversary Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MXN$1,499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Gorra Hooey Dallas Obsidian Blanco Unitalla</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MXN$899.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Gorra Rvca Va Snapback Camo Unitalla</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MXN$499.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Gorra Hurley HNHM0002 One and Only Vino</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MXN$829.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Gorra Puma Flatbrim Rojo Unitalla</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MXN$549.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Gorra Puma 022822 Negro Unitalla</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MXN$549.00</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
